--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AADemidov\Desktop\REFramework_NoQueue\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IAFilin\Desktop\Sintec_backup\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD08C94-0184-4CAD-964C-B8CAAE5213D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="7" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>Имя</t>
   </si>
@@ -114,12 +115,18 @@
   </si>
   <si>
     <t>BIT002_Email_Credentials</t>
+  </si>
+  <si>
+    <t>SheetName</t>
+  </si>
+  <si>
+    <t>Название целевого листа в excel файлах</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -206,9 +213,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -229,13 +236,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -245,7 +249,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -530,21 +534,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E543"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" style="9" customWidth="1"/>
     <col min="3" max="3" width="50.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="73.28515625" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="8"/>
+    <col min="4" max="4" width="20.85546875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="73.28515625" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
@@ -568,645 +572,651 @@
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="12"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="11"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="8"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="8"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="8"/>
+      <c r="A13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="8"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="8"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="8"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="8"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="12"/>
-      <c r="D18" s="8"/>
+      <c r="B18" s="11"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="8"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="8"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="8"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="8"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="8"/>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="8"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="8"/>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="8"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="8"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="8"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="8"/>
+      <c r="D29" s="7"/>
     </row>
     <row r="30" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="8"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="8"/>
+      <c r="D31" s="7"/>
     </row>
     <row r="32" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="8"/>
+      <c r="D32" s="7"/>
     </row>
     <row r="33" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="8"/>
+      <c r="D33" s="7"/>
     </row>
     <row r="34" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="8"/>
+      <c r="D34" s="7"/>
     </row>
     <row r="35" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="8"/>
+      <c r="D35" s="7"/>
     </row>
     <row r="36" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="8"/>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="8"/>
+      <c r="D37" s="7"/>
     </row>
     <row r="38" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="8"/>
+      <c r="D38" s="7"/>
     </row>
     <row r="39" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="8"/>
+      <c r="D39" s="7"/>
     </row>
     <row r="40" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="8"/>
+      <c r="D40" s="7"/>
     </row>
     <row r="41" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="8"/>
+      <c r="D41" s="7"/>
     </row>
     <row r="42" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="8"/>
+      <c r="D42" s="7"/>
     </row>
     <row r="43" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="8"/>
+      <c r="D43" s="7"/>
     </row>
     <row r="44" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="8"/>
+      <c r="D44" s="7"/>
     </row>
     <row r="45" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="8"/>
+      <c r="D45" s="7"/>
     </row>
     <row r="46" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="8"/>
+      <c r="D46" s="7"/>
     </row>
     <row r="47" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="8"/>
+      <c r="D47" s="7"/>
     </row>
     <row r="48" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="8"/>
+      <c r="D48" s="7"/>
     </row>
     <row r="49" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D49" s="8"/>
+      <c r="D49" s="7"/>
     </row>
     <row r="50" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="8"/>
+      <c r="D50" s="7"/>
     </row>
     <row r="51" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D51" s="8"/>
+      <c r="D51" s="7"/>
     </row>
     <row r="52" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="8"/>
+      <c r="D52" s="7"/>
     </row>
     <row r="53" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D53" s="8"/>
+      <c r="D53" s="7"/>
     </row>
     <row r="54" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D54" s="8"/>
+      <c r="D54" s="7"/>
     </row>
     <row r="55" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D55" s="8"/>
+      <c r="D55" s="7"/>
     </row>
     <row r="56" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D56" s="8"/>
+      <c r="D56" s="7"/>
     </row>
     <row r="57" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D57" s="8"/>
+      <c r="D57" s="7"/>
     </row>
     <row r="58" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D58" s="8"/>
+      <c r="D58" s="7"/>
     </row>
     <row r="59" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D59" s="8"/>
+      <c r="D59" s="7"/>
     </row>
     <row r="60" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D60" s="8"/>
+      <c r="D60" s="7"/>
     </row>
     <row r="61" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D61" s="8"/>
+      <c r="D61" s="7"/>
     </row>
     <row r="62" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D62" s="8"/>
+      <c r="D62" s="7"/>
     </row>
     <row r="63" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D63" s="8"/>
+      <c r="D63" s="7"/>
     </row>
     <row r="64" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D64" s="8"/>
+      <c r="D64" s="7"/>
     </row>
     <row r="65" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="8"/>
+      <c r="D65" s="7"/>
     </row>
     <row r="66" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="8"/>
+      <c r="D66" s="7"/>
     </row>
     <row r="67" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D67" s="8"/>
+      <c r="D67" s="7"/>
     </row>
     <row r="68" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D68" s="8"/>
+      <c r="D68" s="7"/>
     </row>
     <row r="69" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D69" s="8"/>
+      <c r="D69" s="7"/>
     </row>
     <row r="70" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D70" s="8"/>
+      <c r="D70" s="7"/>
     </row>
     <row r="71" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D71" s="8"/>
+      <c r="D71" s="7"/>
     </row>
     <row r="72" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D72" s="8"/>
+      <c r="D72" s="7"/>
     </row>
     <row r="73" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D73" s="8"/>
+      <c r="D73" s="7"/>
     </row>
     <row r="74" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D74" s="8"/>
+      <c r="D74" s="7"/>
     </row>
     <row r="75" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D75" s="8"/>
+      <c r="D75" s="7"/>
     </row>
     <row r="76" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D76" s="8"/>
+      <c r="D76" s="7"/>
     </row>
     <row r="77" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D77" s="8"/>
+      <c r="D77" s="7"/>
     </row>
     <row r="78" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D78" s="8"/>
+      <c r="D78" s="7"/>
     </row>
     <row r="79" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D79" s="8"/>
+      <c r="D79" s="7"/>
     </row>
     <row r="80" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D80" s="8"/>
+      <c r="D80" s="7"/>
     </row>
     <row r="81" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D81" s="8"/>
+      <c r="D81" s="7"/>
     </row>
     <row r="82" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D82" s="8"/>
+      <c r="D82" s="7"/>
     </row>
     <row r="83" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D83" s="8"/>
+      <c r="D83" s="7"/>
     </row>
     <row r="84" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D84" s="8"/>
+      <c r="D84" s="7"/>
     </row>
     <row r="85" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D85" s="8"/>
+      <c r="D85" s="7"/>
     </row>
     <row r="86" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D86" s="8"/>
+      <c r="D86" s="7"/>
     </row>
     <row r="87" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D87" s="8"/>
+      <c r="D87" s="7"/>
     </row>
     <row r="88" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D88" s="8"/>
+      <c r="D88" s="7"/>
     </row>
     <row r="89" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D89" s="8"/>
+      <c r="D89" s="7"/>
     </row>
     <row r="90" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D90" s="8"/>
+      <c r="D90" s="7"/>
     </row>
     <row r="91" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D91" s="8"/>
+      <c r="D91" s="7"/>
     </row>
     <row r="92" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D92" s="8"/>
+      <c r="D92" s="7"/>
     </row>
     <row r="93" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D93" s="8"/>
+      <c r="D93" s="7"/>
     </row>
     <row r="94" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D94" s="8"/>
+      <c r="D94" s="7"/>
     </row>
     <row r="95" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D95" s="8"/>
+      <c r="D95" s="7"/>
     </row>
     <row r="96" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D96" s="8"/>
+      <c r="D96" s="7"/>
     </row>
     <row r="97" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D97" s="8"/>
+      <c r="D97" s="7"/>
     </row>
     <row r="98" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D98" s="8"/>
+      <c r="D98" s="7"/>
     </row>
     <row r="99" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D99" s="8"/>
+      <c r="D99" s="7"/>
     </row>
     <row r="100" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D100" s="8"/>
+      <c r="D100" s="7"/>
     </row>
     <row r="101" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D101" s="8"/>
+      <c r="D101" s="7"/>
     </row>
     <row r="102" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D102" s="8"/>
+      <c r="D102" s="7"/>
     </row>
     <row r="103" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D103" s="8"/>
+      <c r="D103" s="7"/>
     </row>
     <row r="104" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D104" s="8"/>
+      <c r="D104" s="7"/>
     </row>
     <row r="105" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D105" s="8"/>
+      <c r="D105" s="7"/>
     </row>
     <row r="106" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D106" s="8"/>
+      <c r="D106" s="7"/>
     </row>
     <row r="107" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D107" s="8"/>
+      <c r="D107" s="7"/>
     </row>
     <row r="108" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D108" s="8"/>
+      <c r="D108" s="7"/>
     </row>
     <row r="109" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D109" s="8"/>
+      <c r="D109" s="7"/>
     </row>
     <row r="110" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D110" s="8"/>
+      <c r="D110" s="7"/>
     </row>
     <row r="111" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D111" s="8"/>
+      <c r="D111" s="7"/>
     </row>
     <row r="112" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D112" s="8"/>
+      <c r="D112" s="7"/>
     </row>
     <row r="113" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D113" s="8"/>
+      <c r="D113" s="7"/>
     </row>
     <row r="114" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D114" s="8"/>
+      <c r="D114" s="7"/>
     </row>
     <row r="115" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D115" s="8"/>
+      <c r="D115" s="7"/>
     </row>
     <row r="116" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D116" s="8"/>
+      <c r="D116" s="7"/>
     </row>
     <row r="117" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D117" s="8"/>
+      <c r="D117" s="7"/>
     </row>
     <row r="118" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D118" s="8"/>
+      <c r="D118" s="7"/>
     </row>
     <row r="119" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D119" s="8"/>
+      <c r="D119" s="7"/>
     </row>
     <row r="120" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D120" s="8"/>
+      <c r="D120" s="7"/>
     </row>
     <row r="121" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D121" s="8"/>
+      <c r="D121" s="7"/>
     </row>
     <row r="122" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D122" s="8"/>
+      <c r="D122" s="7"/>
     </row>
     <row r="123" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D123" s="8"/>
+      <c r="D123" s="7"/>
     </row>
     <row r="124" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D124" s="8"/>
+      <c r="D124" s="7"/>
     </row>
     <row r="125" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D125" s="8"/>
+      <c r="D125" s="7"/>
     </row>
     <row r="126" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D126" s="8"/>
+      <c r="D126" s="7"/>
     </row>
     <row r="127" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D127" s="8"/>
+      <c r="D127" s="7"/>
     </row>
     <row r="128" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D128" s="8"/>
+      <c r="D128" s="7"/>
     </row>
     <row r="129" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D129" s="8"/>
+      <c r="D129" s="7"/>
     </row>
     <row r="130" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D130" s="8"/>
+      <c r="D130" s="7"/>
     </row>
     <row r="131" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D131" s="8"/>
+      <c r="D131" s="7"/>
     </row>
     <row r="132" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D132" s="8"/>
+      <c r="D132" s="7"/>
     </row>
     <row r="133" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D133" s="8"/>
+      <c r="D133" s="7"/>
     </row>
     <row r="134" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D134" s="8"/>
+      <c r="D134" s="7"/>
     </row>
     <row r="135" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D135" s="8"/>
+      <c r="D135" s="7"/>
     </row>
     <row r="136" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D136" s="8"/>
+      <c r="D136" s="7"/>
     </row>
     <row r="137" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D137" s="8"/>
+      <c r="D137" s="7"/>
     </row>
     <row r="138" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D138" s="8"/>
+      <c r="D138" s="7"/>
     </row>
     <row r="139" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D139" s="8"/>
+      <c r="D139" s="7"/>
     </row>
     <row r="140" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D140" s="8"/>
+      <c r="D140" s="7"/>
     </row>
     <row r="141" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D141" s="8"/>
+      <c r="D141" s="7"/>
     </row>
     <row r="142" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D142" s="8"/>
+      <c r="D142" s="7"/>
     </row>
     <row r="143" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D143" s="8"/>
+      <c r="D143" s="7"/>
     </row>
     <row r="144" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D144" s="8"/>
+      <c r="D144" s="7"/>
     </row>
     <row r="145" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D145" s="8"/>
+      <c r="D145" s="7"/>
     </row>
     <row r="146" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D146" s="8"/>
+      <c r="D146" s="7"/>
     </row>
     <row r="147" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D147" s="8"/>
+      <c r="D147" s="7"/>
     </row>
     <row r="148" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D148" s="8"/>
+      <c r="D148" s="7"/>
     </row>
     <row r="149" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D149" s="8"/>
+      <c r="D149" s="7"/>
     </row>
     <row r="150" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D150" s="8"/>
+      <c r="D150" s="7"/>
     </row>
     <row r="151" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D151" s="8"/>
+      <c r="D151" s="7"/>
     </row>
     <row r="152" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D152" s="8"/>
+      <c r="D152" s="7"/>
     </row>
     <row r="153" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D153" s="8"/>
+      <c r="D153" s="7"/>
     </row>
     <row r="154" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D154" s="8"/>
+      <c r="D154" s="7"/>
     </row>
     <row r="155" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D155" s="8"/>
+      <c r="D155" s="7"/>
     </row>
     <row r="156" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D156" s="8"/>
+      <c r="D156" s="7"/>
     </row>
     <row r="157" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D157" s="8"/>
+      <c r="D157" s="7"/>
     </row>
     <row r="158" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D158" s="8"/>
+      <c r="D158" s="7"/>
     </row>
     <row r="159" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D159" s="8"/>
+      <c r="D159" s="7"/>
     </row>
     <row r="160" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D160" s="8"/>
+      <c r="D160" s="7"/>
     </row>
     <row r="161" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D161" s="8"/>
+      <c r="D161" s="7"/>
     </row>
     <row r="162" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D162" s="8"/>
+      <c r="D162" s="7"/>
     </row>
     <row r="163" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D163" s="8"/>
+      <c r="D163" s="7"/>
     </row>
     <row r="164" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D164" s="8"/>
+      <c r="D164" s="7"/>
     </row>
     <row r="165" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D165" s="8"/>
+      <c r="D165" s="7"/>
     </row>
     <row r="166" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D166" s="8"/>
+      <c r="D166" s="7"/>
     </row>
     <row r="167" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D167" s="8"/>
+      <c r="D167" s="7"/>
     </row>
     <row r="168" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D168" s="8"/>
+      <c r="D168" s="7"/>
     </row>
     <row r="169" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D169" s="8"/>
+      <c r="D169" s="7"/>
     </row>
     <row r="170" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D170" s="8"/>
+      <c r="D170" s="7"/>
     </row>
     <row r="171" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D171" s="8"/>
+      <c r="D171" s="7"/>
     </row>
     <row r="172" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D172" s="8"/>
+      <c r="D172" s="7"/>
     </row>
     <row r="173" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D173" s="8"/>
+      <c r="D173" s="7"/>
     </row>
     <row r="174" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D174" s="8"/>
+      <c r="D174" s="7"/>
     </row>
     <row r="175" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D175" s="8"/>
+      <c r="D175" s="7"/>
     </row>
     <row r="176" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D176" s="8"/>
+      <c r="D176" s="7"/>
     </row>
     <row r="177" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D177" s="8"/>
+      <c r="D177" s="7"/>
     </row>
     <row r="178" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D178" s="8"/>
+      <c r="D178" s="7"/>
     </row>
     <row r="179" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D179" s="8"/>
+      <c r="D179" s="7"/>
     </row>
     <row r="180" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D180" s="8"/>
+      <c r="D180" s="7"/>
     </row>
     <row r="181" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D181" s="8"/>
+      <c r="D181" s="7"/>
     </row>
     <row r="182" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D182" s="8"/>
+      <c r="D182" s="7"/>
     </row>
     <row r="183" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D183" s="8"/>
+      <c r="D183" s="7"/>
     </row>
     <row r="184" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D184" s="8"/>
+      <c r="D184" s="7"/>
     </row>
     <row r="185" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D185" s="8"/>
+      <c r="D185" s="7"/>
     </row>
     <row r="186" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D186" s="8"/>
+      <c r="D186" s="7"/>
     </row>
     <row r="187" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D187" s="8"/>
+      <c r="D187" s="7"/>
     </row>
     <row r="188" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D188" s="8"/>
+      <c r="D188" s="7"/>
     </row>
     <row r="189" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D189" s="8"/>
+      <c r="D189" s="7"/>
     </row>
     <row r="190" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D190" s="8"/>
+      <c r="D190" s="7"/>
     </row>
     <row r="191" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D191" s="8"/>
+      <c r="D191" s="7"/>
     </row>
     <row r="192" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D192" s="3"/>
@@ -2265,19 +2275,19 @@
       <c r="D543" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D192:D543">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D192:D543" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"AuthCredentials,SecureData,Text"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D191">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D191" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"AuthCredentials,SecureData,Text,WinCred,Path,PathMaster"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
-    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -2285,7 +2295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2294,14 +2304,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37" style="8" customWidth="1"/>
-    <col min="5" max="5" width="27" style="8" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" style="8"/>
-    <col min="7" max="7" width="78" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="30.7109375" style="8"/>
+    <col min="1" max="1" width="35.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="37" style="7" customWidth="1"/>
+    <col min="5" max="5" width="27" style="7" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" style="7"/>
+    <col min="7" max="7" width="78" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="30.7109375" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2332,7 +2342,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="H2" s="13"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
@@ -2344,22 +2354,19 @@
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="C6" s="9"/>
+      <c r="C6" s="8"/>
       <c r="E6" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="9"/>
+      <c r="D16" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1148">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1148" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"AuthCredentials,SecureData,Text,WinCred,Path,PathMaster"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IAFilin\Desktop\Sintec_backup\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD08C94-0184-4CAD-964C-B8CAAE5213D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449534E3-1EA6-4747-B5BA-AA6F7117F2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Имя</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>Название целевого листа в excel файлах</t>
+  </si>
+  <si>
+    <t>ColumnNames</t>
+  </si>
+  <si>
+    <t>Проблема по планам от мая (Да \ Нет) по номенкл.;Уходимость (в мес.);Проблема по планам (Да \ Нет) по номенкл.;</t>
   </si>
 </sst>
 </file>
@@ -538,7 +544,7 @@
   <dimension ref="A1:E543"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -684,6 +690,12 @@
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IAFilin\Desktop\Sintec_backup\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449534E3-1EA6-4747-B5BA-AA6F7117F2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC59307E-F2D9-40BC-BD21-D1D5648D74C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,7 +126,9 @@
     <t>ColumnNames</t>
   </si>
   <si>
-    <t>Проблема по планам от мая (Да \ Нет) по номенкл.;Уходимость (в мес.);Проблема по планам (Да \ Нет) по номенкл.;</t>
+    <t>Проблема по планам от марта (Да \ Нет) пономенкл.;Уходимость (в мес.);Проблема по планам от мая (Да \ Нет) по
+номенкл.;Уходимость (в мес.)(1);Проблема по планам (Да \ Нет) пономенкл.;Уходимость (в мес.)(2);Уходимость (в мес.)(3);Действие;Комментарий;Дата сработки
+\ реализации;Потери при вовлечении с удорожанием в другие продукты;Количество на списание, нат.ед.;Сумма на списание, руб.;Количество на продажу, нат.ед.;Сумма на  продажу, руб.;Признак (расчета, сработки)</t>
   </si>
 </sst>
 </file>
@@ -544,7 +546,7 @@
   <dimension ref="A1:E543"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IAFilin\Desktop\Sintec_backup\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC59307E-F2D9-40BC-BD21-D1D5648D74C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD880B96-47AA-4573-AEAF-BF0E032184F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1995" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,18 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data_Separation!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Settings!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -126,8 +137,7 @@
     <t>ColumnNames</t>
   </si>
   <si>
-    <t>Проблема по планам от марта (Да \ Нет) пономенкл.;Уходимость (в мес.);Проблема по планам от мая (Да \ Нет) по
-номенкл.;Уходимость (в мес.)(1);Проблема по планам (Да \ Нет) пономенкл.;Уходимость (в мес.)(2);Уходимость (в мес.)(3);Действие;Комментарий;Дата сработки
+    <t>Проблема по планам от марта (Да \ Нет) по номенкл.;Уходимость (в мес.);Проблема по планам от мая (Да \ Нет) по номенкл.;Уходимость (в мес.)(1);Проблема по планам (Да \ Нет) по номенкл.;Уходимость (в мес.)(2);Уходимость (в мес.)(3);Действие;Комментарий;Дата сработки
 \ реализации;Потери при вовлечении с удорожанием в другие продукты;Количество на списание, нат.ед.;Сумма на списание, руб.;Количество на продажу, нат.ед.;Сумма на  продажу, руб.;Признак (расчета, сработки)</t>
   </si>
 </sst>
@@ -546,7 +556,7 @@
   <dimension ref="A1:E543"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IAFilin\Desktop\Sintec_backup\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD880B96-47AA-4573-AEAF-BF0E032184F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9FC47C-991A-42B7-A600-88D2C6975C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1995" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27360" yWindow="-1155" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Имя</t>
   </si>
@@ -119,15 +119,9 @@
     <t>https://rpachallenge.com/assets/downloadFiles/challenge.xlsx</t>
   </si>
   <si>
-    <t>aademidov@1bit.com</t>
-  </si>
-  <si>
     <t>AuthCredentials</t>
   </si>
   <si>
-    <t>BIT002_Email_Credentials</t>
-  </si>
-  <si>
     <t>SheetName</t>
   </si>
   <si>
@@ -137,8 +131,7 @@
     <t>ColumnNames</t>
   </si>
   <si>
-    <t>Проблема по планам от марта (Да \ Нет) по номенкл.;Уходимость (в мес.);Проблема по планам от мая (Да \ Нет) по номенкл.;Уходимость (в мес.)(1);Проблема по планам (Да \ Нет) по номенкл.;Уходимость (в мес.)(2);Уходимость (в мес.)(3);Действие;Комментарий;Дата сработки
-\ реализации;Потери при вовлечении с удорожанием в другие продукты;Количество на списание, нат.ед.;Сумма на списание, руб.;Количество на продажу, нат.ед.;Сумма на  продажу, руб.;Признак (расчета, сработки)</t>
+    <t>Проблема по планам от марта (Да \ Нет) по номенкл.;Уходимость (в мес.);Проблема по планам от мая (Да \ Нет) по номенкл.;Уходимость (в мес.)(1);Проблема по планам (Да \ Нет) по номенкл.;Уходимость (в мес.)(2);Уходимость (в мес.)(3);Действие;Комментарий;Дата сработки \ реализации;Потери при вовлечении с удорожанием в другие продукты ;Количество на списание, нат.ед.;Сумма на списание, руб.;Количество на продажу, нат.ед.;Сумма на  продажу, руб.;Признак (расчета, сработки)</t>
   </si>
 </sst>
 </file>
@@ -556,7 +549,7 @@
   <dimension ref="A1:E543"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -619,23 +612,19 @@
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="B5" s="10"/>
       <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>27</v>
-      </c>
+      <c r="B6" s="12"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
@@ -645,9 +634,7 @@
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>27</v>
-      </c>
+      <c r="B7" s="12"/>
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
@@ -694,19 +681,19 @@
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" s="7"/>
     </row>
@@ -2309,12 +2296,10 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IAFilin\Desktop\Sintec_backup\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9FC47C-991A-42B7-A600-88D2C6975C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E98839-7003-4014-AFEF-BCD58F010E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27360" yWindow="-1155" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Имя</t>
   </si>
@@ -86,15 +86,6 @@
     <t>Начало темы письма</t>
   </si>
   <si>
-    <t>RpaChallengeURL</t>
-  </si>
-  <si>
-    <t>https://rpachallenge.com/</t>
-  </si>
-  <si>
-    <t>URL сайта, где заносятся данные</t>
-  </si>
-  <si>
     <t>REF_TEST</t>
   </si>
   <si>
@@ -113,12 +104,6 @@
     <t>* (Если Тип не указан, значение запишется напрямую в словарь dict_config)</t>
   </si>
   <si>
-    <t>RpaChallengeFileURL</t>
-  </si>
-  <si>
-    <t>https://rpachallenge.com/assets/downloadFiles/challenge.xlsx</t>
-  </si>
-  <si>
     <t>AuthCredentials</t>
   </si>
   <si>
@@ -132,6 +117,15 @@
   </si>
   <si>
     <t>Проблема по планам от марта (Да \ Нет) по номенкл.;Уходимость (в мес.);Проблема по планам от мая (Да \ Нет) по номенкл.;Уходимость (в мес.)(1);Проблема по планам (Да \ Нет) по номенкл.;Уходимость (в мес.)(2);Уходимость (в мес.)(3);Действие;Комментарий;Дата сработки \ реализации;Потери при вовлечении с удорожанием в другие продукты ;Количество на списание, нат.ед.;Сумма на списание, руб.;Количество на продажу, нат.ед.;Сумма на  продажу, руб.;Признак (расчета, сработки)</t>
+  </si>
+  <si>
+    <t>Данные</t>
+  </si>
+  <si>
+    <t>mailCred</t>
+  </si>
+  <si>
+    <t>WinCred</t>
   </si>
 </sst>
 </file>
@@ -549,7 +543,7 @@
   <dimension ref="A1:E543"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -576,7 +570,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -601,7 +595,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
@@ -610,19 +604,19 @@
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="3" t="s">
@@ -645,7 +639,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -659,41 +653,37 @@
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D14" s="7"/>
     </row>
@@ -2295,11 +2285,8 @@
       <formula1>"AuthCredentials,SecureData,Text,WinCred,Path,PathMaster"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2343,7 +2330,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IAFilin\Desktop\Sintec_backup\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i.filin\PixProjects\InventoryReport_REFramework_NoQueue\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E98839-7003-4014-AFEF-BCD58F010E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3460323F-6E5A-4E1E-A0F2-0AB348EA92C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27360" yWindow="-1155" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-420" yWindow="105" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Имя</t>
   </si>
@@ -104,18 +104,9 @@
     <t>* (Если Тип не указан, значение запишется напрямую в словарь dict_config)</t>
   </si>
   <si>
-    <t>AuthCredentials</t>
-  </si>
-  <si>
     <t>SheetName</t>
   </si>
   <si>
-    <t>Название целевого листа в excel файлах</t>
-  </si>
-  <si>
-    <t>ColumnNames</t>
-  </si>
-  <si>
     <t>Проблема по планам от марта (Да \ Нет) по номенкл.;Уходимость (в мес.);Проблема по планам от мая (Да \ Нет) по номенкл.;Уходимость (в мес.)(1);Проблема по планам (Да \ Нет) по номенкл.;Уходимость (в мес.)(2);Уходимость (в мес.)(3);Действие;Комментарий;Дата сработки \ реализации;Потери при вовлечении с удорожанием в другие продукты ;Количество на списание, нат.ед.;Сумма на списание, руб.;Количество на продажу, нат.ед.;Сумма на  продажу, руб.;Признак (расчета, сработки)</t>
   </si>
   <si>
@@ -126,13 +117,31 @@
   </si>
   <si>
     <t>WinCred</t>
+  </si>
+  <si>
+    <t>mail.oos.ru</t>
+  </si>
+  <si>
+    <t>Filin_yandexMail_Cred</t>
+  </si>
+  <si>
+    <t>filin290245@yandex.ru</t>
+  </si>
+  <si>
+    <t>pix-robot@sintecgroup.ru</t>
+  </si>
+  <si>
+    <t>REF_Sintec</t>
+  </si>
+  <si>
+    <t>TargetColumnNames</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -190,6 +199,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -214,11 +230,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -248,21 +265,25 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{CA5C4947-B512-49A5-B2C7-2E8FC3CD4415}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -542,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E543"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -577,7 +598,7 @@
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -587,63 +608,33 @@
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="11"/>
+      <c r="B3" s="10"/>
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="A5" s="6"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="B8" s="12"/>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -656,35 +647,13 @@
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="B12" s="13"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -697,7 +666,7 @@
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
+      <c r="B18" s="10"/>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2294,8 +2263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2334,24 +2303,110 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="H2" s="12"/>
+      <c r="A2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="C5" s="6"/>
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="C6" s="8"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="6"/>
